--- a/sofaplayer/Bundesliga/VfB Stuttgart_stats.xlsx
+++ b/sofaplayer/Bundesliga/VfB Stuttgart_stats.xlsx
@@ -1035,64 +1035,64 @@
         <v>794298</v>
       </c>
       <c r="E2" t="n">
-        <v>7.0588235294118</v>
+        <v>7.1277777777778</v>
       </c>
       <c r="F2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="n">
-        <v>1267</v>
+        <v>1357</v>
       </c>
       <c r="I2" t="n">
         <v>3</v>
       </c>
       <c r="J2" t="n">
+        <v>12</v>
+      </c>
+      <c r="K2" t="n">
+        <v>9.279500000000001</v>
+      </c>
+      <c r="L2" t="n">
+        <v>113.08333333333</v>
+      </c>
+      <c r="M2" t="n">
+        <v>77</v>
+      </c>
+      <c r="N2" t="n">
+        <v>29</v>
+      </c>
+      <c r="O2" t="n">
         <v>11</v>
       </c>
-      <c r="K2" t="n">
-        <v>8.2195</v>
-      </c>
-      <c r="L2" t="n">
-        <v>115.18181818182</v>
-      </c>
-      <c r="M2" t="n">
-        <v>71</v>
-      </c>
-      <c r="N2" t="n">
-        <v>27</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
+        <v>15.584415584416</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>12</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
         <v>10</v>
-      </c>
-      <c r="P2" t="n">
-        <v>15.492957746479</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>11</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>9</v>
       </c>
       <c r="Y2" t="n">
         <v>2</v>
@@ -1101,10 +1101,10 @@
         <v>3</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.65234664</v>
+        <v>1.72396574</v>
       </c>
       <c r="AB2" t="n">
-        <v>529</v>
+        <v>581</v>
       </c>
       <c r="AC2" t="n">
         <v>4</v>
@@ -1113,22 +1113,22 @@
         <v>20</v>
       </c>
       <c r="AE2" t="n">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="AF2" t="n">
-        <v>73.667711598746</v>
+        <v>73.988439306358</v>
       </c>
       <c r="AG2" t="n">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="AH2" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="n">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="AJ2" t="n">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="AK2" t="n">
         <v>9</v>
@@ -1146,22 +1146,22 @@
         <v>4</v>
       </c>
       <c r="AP2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AQ2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AR2" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AS2" t="n">
         <v>9</v>
       </c>
       <c r="AT2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AU2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
@@ -1179,31 +1179,31 @@
         <v>33.333333333333</v>
       </c>
       <c r="BA2" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="BB2" t="n">
-        <v>30.894308943089</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BC2" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="BD2" t="n">
-        <v>25.675675675676</v>
+        <v>30.864197530864</v>
       </c>
       <c r="BE2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BF2" t="n">
-        <v>38.775510204082</v>
+        <v>37.037037037037</v>
       </c>
       <c r="BG2" t="n">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="BH2" t="n">
         <v>21</v>
       </c>
       <c r="BI2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BJ2" t="n">
         <v>20</v>
@@ -1221,28 +1221,28 @@
         <v>2</v>
       </c>
       <c r="BO2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BP2" t="n">
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>120</v>
+        <v>128.3</v>
       </c>
       <c r="BR2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BT2" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BW2" t="n">
         <v>0</v>
@@ -1254,19 +1254,19 @@
         <v>2</v>
       </c>
       <c r="BZ2" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="CA2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CB2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CC2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="CD2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CK2" t="n">
         <v>2</v>
@@ -1314,13 +1314,13 @@
         <v>9</v>
       </c>
       <c r="CT2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CU2" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="CV2" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>15</v>
       </c>
       <c r="DA2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="DB2" t="n">
         <v>66.666666666667</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="DG2" t="n">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1391,40 +1391,40 @@
         <v>878081</v>
       </c>
       <c r="E3" t="n">
-        <v>6.7818181818182</v>
+        <v>6.975</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>730</v>
+        <v>820</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K3" t="n">
-        <v>2.9265</v>
+        <v>3.9994</v>
       </c>
       <c r="L3" t="n">
-        <v>146</v>
+        <v>117.14285714286</v>
       </c>
       <c r="M3" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
         <v>4</v>
       </c>
       <c r="P3" t="n">
-        <v>35.714285714286</v>
+        <v>38.888888888889</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U3" t="n">
         <v>1</v>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -1457,10 +1457,10 @@
         <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.14941202</v>
+        <v>1.18361742</v>
       </c>
       <c r="AB3" t="n">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AC3" t="n">
         <v>1</v>
@@ -1469,22 +1469,22 @@
         <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AF3" t="n">
-        <v>73.148148148148</v>
+        <v>72.58064516128999</v>
       </c>
       <c r="AG3" t="n">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="AH3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AI3" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="AJ3" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AK3" t="n">
         <v>1</v>
@@ -1502,13 +1502,13 @@
         <v>1</v>
       </c>
       <c r="AP3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ3" t="n">
         <v>5</v>
       </c>
       <c r="AR3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AS3" t="n">
         <v>1</v>
@@ -1517,7 +1517,7 @@
         <v>8</v>
       </c>
       <c r="AU3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV3" t="n">
         <v>1</v>
@@ -1529,43 +1529,43 @@
         <v>0</v>
       </c>
       <c r="AY3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ3" t="n">
-        <v>66.666666666667</v>
+        <v>75</v>
       </c>
       <c r="BA3" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="BB3" t="n">
-        <v>36.781609195402</v>
+        <v>41.414141414141</v>
       </c>
       <c r="BC3" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="BD3" t="n">
-        <v>39.21568627451</v>
+        <v>44.067796610169</v>
       </c>
       <c r="BE3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BF3" t="n">
-        <v>33.333333333333</v>
+        <v>37.5</v>
       </c>
       <c r="BG3" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="BH3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BI3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BJ3" t="n">
         <v>7</v>
       </c>
       <c r="BK3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BL3" t="n">
         <v>0</v>
@@ -1577,43 +1577,43 @@
         <v>2</v>
       </c>
       <c r="BO3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BP3" t="n">
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>74.59999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="BR3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BS3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BT3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
       </c>
       <c r="BV3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>15</v>
+      </c>
+      <c r="CA3" t="n">
         <v>3</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>12</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>2</v>
       </c>
       <c r="CB3" t="n">
         <v>12</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CK3" t="n">
         <v>1</v>
@@ -1667,49 +1667,49 @@
         <v>8</v>
       </c>
       <c r="CS3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CT3" t="n">
         <v>0</v>
       </c>
       <c r="CU3" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="CV3" t="n">
+        <v>25</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>5</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>83.333333333333</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF3" t="n">
         <v>24</v>
       </c>
-      <c r="CW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DB3" t="n">
-        <v>75</v>
-      </c>
-      <c r="DC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF3" t="n">
-        <v>20</v>
-      </c>
       <c r="DG3" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -2103,16 +2103,16 @@
         <v>983540</v>
       </c>
       <c r="E5" t="n">
-        <v>6.7571428571429</v>
+        <v>6.74</v>
       </c>
       <c r="F5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" t="n">
         <v>6</v>
       </c>
       <c r="H5" t="n">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2124,7 +2124,7 @@
         <v>4.0663</v>
       </c>
       <c r="L5" t="n">
-        <v>208.66666666667</v>
+        <v>212.66666666667</v>
       </c>
       <c r="M5" t="n">
         <v>26</v>
@@ -2169,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.61905012</v>
+        <v>0.62064949</v>
       </c>
       <c r="AB5" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AC5" t="n">
         <v>1</v>
@@ -2181,22 +2181,22 @@
         <v>8</v>
       </c>
       <c r="AE5" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF5" t="n">
-        <v>79.679144385027</v>
+        <v>79.787234042553</v>
       </c>
       <c r="AG5" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AH5" t="n">
         <v>36</v>
       </c>
       <c r="AI5" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ5" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK5" t="n">
         <v>1</v>
@@ -2220,7 +2220,7 @@
         <v>2</v>
       </c>
       <c r="AR5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS5" t="n">
         <v>1</v>
@@ -2244,19 +2244,19 @@
         <v>8</v>
       </c>
       <c r="AZ5" t="n">
-        <v>32</v>
+        <v>30.769230769231</v>
       </c>
       <c r="BA5" t="n">
         <v>41</v>
       </c>
       <c r="BB5" t="n">
-        <v>47.674418604651</v>
+        <v>47.126436781609</v>
       </c>
       <c r="BC5" t="n">
         <v>35</v>
       </c>
       <c r="BD5" t="n">
-        <v>47.945205479452</v>
+        <v>47.297297297297</v>
       </c>
       <c r="BE5" t="n">
         <v>6</v>
@@ -2265,7 +2265,7 @@
         <v>46.153846153846</v>
       </c>
       <c r="BG5" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="BH5" t="n">
         <v>8</v>
@@ -2295,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>94.59999999999999</v>
+        <v>101.1</v>
       </c>
       <c r="BR5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BS5" t="n">
         <v>3</v>
@@ -2379,13 +2379,13 @@
         <v>8</v>
       </c>
       <c r="CS5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="CT5" t="n">
         <v>9</v>
       </c>
       <c r="CU5" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CV5" t="n">
         <v>7</v>
@@ -2421,7 +2421,7 @@
         <v>42</v>
       </c>
       <c r="DG5" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
@@ -2459,16 +2459,16 @@
         <v>1126569</v>
       </c>
       <c r="E6" t="n">
-        <v>7.0066666666667</v>
+        <v>6.975</v>
       </c>
       <c r="F6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" t="n">
         <v>13</v>
       </c>
       <c r="H6" t="n">
-        <v>1085</v>
+        <v>1105</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -2480,7 +2480,7 @@
         <v>1.5435</v>
       </c>
       <c r="L6" t="n">
-        <v>361.66666666667</v>
+        <v>368.33333333333</v>
       </c>
       <c r="M6" t="n">
         <v>25</v>
@@ -2525,10 +2525,10 @@
         <v>3</v>
       </c>
       <c r="AA6" t="n">
-        <v>3.52271217</v>
+        <v>3.57476687</v>
       </c>
       <c r="AB6" t="n">
-        <v>828</v>
+        <v>853</v>
       </c>
       <c r="AC6" t="n">
         <v>4</v>
@@ -2537,52 +2537,52 @@
         <v>32</v>
       </c>
       <c r="AE6" t="n">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="AF6" t="n">
-        <v>79.206349206349</v>
+        <v>79.320987654321</v>
       </c>
       <c r="AG6" t="n">
-        <v>630</v>
+        <v>648</v>
       </c>
       <c r="AH6" t="n">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AI6" t="n">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="AJ6" t="n">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="AK6" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>61.111111111111</v>
+        <v>61.818181818182</v>
       </c>
       <c r="AM6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN6" t="n">
-        <v>26.190476190476</v>
+        <v>27.272727272727</v>
       </c>
       <c r="AO6" t="n">
         <v>6</v>
       </c>
       <c r="AP6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ6" t="n">
         <v>6</v>
       </c>
       <c r="AR6" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AS6" t="n">
         <v>4</v>
       </c>
       <c r="AT6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU6" t="n">
         <v>11</v>
@@ -2600,31 +2600,31 @@
         <v>10</v>
       </c>
       <c r="AZ6" t="n">
-        <v>52.631578947368</v>
+        <v>50</v>
       </c>
       <c r="BA6" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="BB6" t="n">
-        <v>49.473684210526</v>
+        <v>48.484848484848</v>
       </c>
       <c r="BC6" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BD6" t="n">
-        <v>48.648648648649</v>
+        <v>48.051948051948</v>
       </c>
       <c r="BE6" t="n">
         <v>11</v>
       </c>
       <c r="BF6" t="n">
-        <v>52.380952380952</v>
+        <v>50</v>
       </c>
       <c r="BG6" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="BH6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BI6" t="n">
         <v>7</v>
@@ -2633,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="BK6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL6" t="n">
         <v>0</v>
@@ -2645,22 +2645,22 @@
         <v>2</v>
       </c>
       <c r="BO6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BP6" t="n">
         <v>0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>105.1</v>
+        <v>111.6</v>
       </c>
       <c r="BR6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BS6" t="n">
         <v>6</v>
       </c>
       <c r="BT6" t="n">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="CJ6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CK6" t="n">
         <v>1</v>
@@ -2735,16 +2735,16 @@
         <v>32</v>
       </c>
       <c r="CS6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CT6" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="CU6" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="CV6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CW6" t="n">
         <v>0</v>
@@ -2756,13 +2756,13 @@
         <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="DA6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="DB6" t="n">
-        <v>78.947368421053</v>
+        <v>80</v>
       </c>
       <c r="DC6" t="n">
         <v>0</v>
@@ -2774,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="DG6" t="n">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -3171,16 +3171,16 @@
         <v>1464641</v>
       </c>
       <c r="E8" t="n">
-        <v>6.9416666666667</v>
+        <v>6.9153846153846</v>
       </c>
       <c r="F8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H8" t="n">
-        <v>699</v>
+        <v>782</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -3189,13 +3189,13 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.8519</v>
       </c>
       <c r="L8" t="n">
-        <v>699</v>
+        <v>782</v>
       </c>
       <c r="M8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N8" t="n">
         <v>3</v>
@@ -3204,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>11.111111111111</v>
+        <v>10</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.4085652</v>
+        <v>0.4459393</v>
       </c>
       <c r="AB8" t="n">
-        <v>531</v>
+        <v>591</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
@@ -3249,22 +3249,22 @@
         <v>8</v>
       </c>
       <c r="AE8" t="n">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="AF8" t="n">
-        <v>85.330073349633</v>
+        <v>85.934065934066</v>
       </c>
       <c r="AG8" t="n">
-        <v>409</v>
+        <v>455</v>
       </c>
       <c r="AH8" t="n">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="AI8" t="n">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="AJ8" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AK8" t="n">
         <v>9</v>
@@ -3279,22 +3279,22 @@
         <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
         <v>2</v>
       </c>
       <c r="AR8" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AS8" t="n">
         <v>3</v>
       </c>
       <c r="AT8" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AU8" t="n">
         <v>3</v>
@@ -3315,28 +3315,28 @@
         <v>100</v>
       </c>
       <c r="BA8" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="BB8" t="n">
+        <v>58.064516129032</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>24</v>
+      </c>
+      <c r="BD8" t="n">
         <v>60</v>
       </c>
-      <c r="BC8" t="n">
-        <v>23</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>60.526315789474</v>
-      </c>
       <c r="BE8" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BF8" t="n">
-        <v>59.574468085106</v>
+        <v>56.603773584906</v>
       </c>
       <c r="BG8" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="BH8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BI8" t="n">
         <v>5</v>
@@ -3357,28 +3357,28 @@
         <v>3</v>
       </c>
       <c r="BO8" t="n">
+        <v>14</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="BR8" t="n">
         <v>13</v>
       </c>
-      <c r="BP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>83.3</v>
-      </c>
-      <c r="BR8" t="n">
-        <v>12</v>
-      </c>
       <c r="BS8" t="n">
         <v>1</v>
       </c>
       <c r="BT8" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
@@ -3393,34 +3393,34 @@
         <v>8</v>
       </c>
       <c r="CA8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CB8" t="n">
         <v>3</v>
       </c>
       <c r="CC8" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="CD8" t="n">
+        <v>15</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ8" t="n">
         <v>13</v>
-      </c>
-      <c r="CE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ8" t="n">
-        <v>12</v>
       </c>
       <c r="CK8" t="n">
         <v>1</v>
@@ -3453,10 +3453,10 @@
         <v>0</v>
       </c>
       <c r="CU8" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="CV8" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="CW8" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="DB8" t="n">
-        <v>55.555555555556</v>
+        <v>52.631578947368</v>
       </c>
       <c r="DC8" t="n">
         <v>0</v>
@@ -3486,16 +3486,16 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="DG8" t="n">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
       </c>
       <c r="DI8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="DJ8" t="n">
         <v>2190043</v>
@@ -3527,16 +3527,16 @@
         <v>901882</v>
       </c>
       <c r="E9" t="n">
-        <v>7.147619047619</v>
+        <v>7.1590909090909</v>
       </c>
       <c r="F9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G9" t="n">
         <v>18</v>
       </c>
       <c r="H9" t="n">
-        <v>1696</v>
+        <v>1709</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -3548,7 +3548,7 @@
         <v>2.1586</v>
       </c>
       <c r="L9" t="n">
-        <v>1696</v>
+        <v>1709</v>
       </c>
       <c r="M9" t="n">
         <v>8</v>
@@ -3590,37 +3590,37 @@
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA9" t="n">
-        <v>4.5259026</v>
+        <v>4.9095156</v>
       </c>
       <c r="AB9" t="n">
-        <v>1749</v>
+        <v>1756</v>
       </c>
       <c r="AC9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD9" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE9" t="n">
-        <v>1273</v>
+        <v>1277</v>
       </c>
       <c r="AF9" t="n">
-        <v>88.096885813149</v>
+        <v>88.129744651484</v>
       </c>
       <c r="AG9" t="n">
-        <v>1445</v>
+        <v>1449</v>
       </c>
       <c r="AH9" t="n">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI9" t="n">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="AJ9" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AK9" t="n">
         <v>45</v>
@@ -3638,7 +3638,7 @@
         <v>18</v>
       </c>
       <c r="AP9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ9" t="n">
         <v>14</v>
@@ -3650,7 +3650,7 @@
         <v>12</v>
       </c>
       <c r="AT9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU9" t="n">
         <v>3</v>
@@ -3671,25 +3671,25 @@
         <v>58.823529411765</v>
       </c>
       <c r="BA9" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="BB9" t="n">
-        <v>55.03355704698</v>
+        <v>55.629139072848</v>
       </c>
       <c r="BC9" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BD9" t="n">
-        <v>61.165048543689</v>
+        <v>61.538461538462</v>
       </c>
       <c r="BE9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BF9" t="n">
-        <v>41.304347826087</v>
+        <v>42.553191489362</v>
       </c>
       <c r="BG9" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="BH9" t="n">
         <v>12</v>
@@ -3719,13 +3719,13 @@
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>150.1</v>
+        <v>157.5</v>
       </c>
       <c r="BR9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BT9" t="n">
         <v>172</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="CR9" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CS9" t="n">
         <v>17</v>
@@ -3827,10 +3827,10 @@
         <v>100</v>
       </c>
       <c r="DA9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="DB9" t="n">
-        <v>42.307692307692</v>
+        <v>44.444444444444</v>
       </c>
       <c r="DC9" t="n">
         <v>0</v>
@@ -3842,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="DG9" t="n">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -3883,16 +3883,16 @@
         <v>990201</v>
       </c>
       <c r="E10" t="n">
-        <v>7.04</v>
+        <v>7.0047619047619</v>
       </c>
       <c r="F10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H10" t="n">
-        <v>1491</v>
+        <v>1575</v>
       </c>
       <c r="I10" t="n">
         <v>2</v>
@@ -3904,7 +3904,7 @@
         <v>2.6621</v>
       </c>
       <c r="L10" t="n">
-        <v>298.2</v>
+        <v>315</v>
       </c>
       <c r="M10" t="n">
         <v>35</v>
@@ -3946,49 +3946,49 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>3.41708712</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>857</v>
+      </c>
+      <c r="AC10" t="n">
         <v>5</v>
       </c>
-      <c r="AA10" t="n">
-        <v>3.21824012</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>813</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>4</v>
-      </c>
       <c r="AD10" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AE10" t="n">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="AF10" t="n">
-        <v>75.391498881432</v>
+        <v>75.420168067227</v>
       </c>
       <c r="AG10" t="n">
-        <v>447</v>
+        <v>476</v>
       </c>
       <c r="AH10" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AI10" t="n">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="AJ10" t="n">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AK10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL10" t="n">
-        <v>30.769230769231</v>
+        <v>33.333333333333</v>
       </c>
       <c r="AM10" t="n">
         <v>21</v>
       </c>
       <c r="AN10" t="n">
-        <v>30</v>
+        <v>29.577464788732</v>
       </c>
       <c r="AO10" t="n">
         <v>12</v>
@@ -4000,13 +4000,13 @@
         <v>13</v>
       </c>
       <c r="AR10" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AS10" t="n">
         <v>6</v>
       </c>
       <c r="AT10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU10" t="n">
         <v>13</v>
@@ -4024,37 +4024,37 @@
         <v>21</v>
       </c>
       <c r="AZ10" t="n">
-        <v>46.666666666667</v>
+        <v>45.652173913043</v>
       </c>
       <c r="BA10" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BB10" t="n">
-        <v>49.006622516556</v>
+        <v>47.169811320755</v>
       </c>
       <c r="BC10" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BD10" t="n">
-        <v>50</v>
+        <v>48.529411764706</v>
       </c>
       <c r="BE10" t="n">
         <v>9</v>
       </c>
       <c r="BF10" t="n">
-        <v>42.857142857143</v>
+        <v>39.130434782609</v>
       </c>
       <c r="BG10" t="n">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="BH10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BI10" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BJ10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK10" t="n">
         <v>4</v>
@@ -4069,22 +4069,22 @@
         <v>5</v>
       </c>
       <c r="BO10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BP10" t="n">
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>140.8</v>
+        <v>147.1</v>
       </c>
       <c r="BR10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BT10" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
@@ -4108,7 +4108,7 @@
         <v>19</v>
       </c>
       <c r="CB10" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="CC10" t="n">
         <v>30</v>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CK10" t="n">
         <v>2</v>
@@ -4156,19 +4156,19 @@
         <v>0</v>
       </c>
       <c r="CR10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="CS10" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CT10" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="CU10" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="CV10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CW10" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="DA10" t="n">
         <v>7</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="DG10" t="n">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4239,16 +4239,16 @@
         <v>891510</v>
       </c>
       <c r="E11" t="n">
-        <v>6.99</v>
+        <v>7.0047619047619</v>
       </c>
       <c r="F11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H11" t="n">
-        <v>799</v>
+        <v>869</v>
       </c>
       <c r="I11" t="n">
         <v>2</v>
@@ -4260,7 +4260,7 @@
         <v>1.0435</v>
       </c>
       <c r="L11" t="n">
-        <v>266.33333333333</v>
+        <v>289.66666666667</v>
       </c>
       <c r="M11" t="n">
         <v>17</v>
@@ -4305,46 +4305,46 @@
         <v>3</v>
       </c>
       <c r="AA11" t="n">
-        <v>3.84143257</v>
+        <v>3.97157257</v>
       </c>
       <c r="AB11" t="n">
-        <v>570</v>
+        <v>617</v>
       </c>
       <c r="AC11" t="n">
         <v>6</v>
       </c>
       <c r="AD11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="n">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="AF11" t="n">
-        <v>80.645161290323</v>
+        <v>80.25477707006399</v>
       </c>
       <c r="AG11" t="n">
-        <v>434</v>
+        <v>471</v>
       </c>
       <c r="AH11" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="AI11" t="n">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="AJ11" t="n">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="AK11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL11" t="n">
-        <v>50</v>
+        <v>52.380952380952</v>
       </c>
       <c r="AM11" t="n">
         <v>10</v>
       </c>
       <c r="AN11" t="n">
-        <v>31.25</v>
+        <v>28.571428571429</v>
       </c>
       <c r="AO11" t="n">
         <v>0</v>
@@ -4353,13 +4353,13 @@
         <v>9</v>
       </c>
       <c r="AQ11" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AR11" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AS11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
         <v>5</v>
@@ -4377,22 +4377,22 @@
         <v>1</v>
       </c>
       <c r="AY11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ11" t="n">
-        <v>68.181818181818</v>
+        <v>66.666666666667</v>
       </c>
       <c r="BA11" t="n">
+        <v>28</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>50</v>
+      </c>
+      <c r="BC11" t="n">
         <v>27</v>
       </c>
-      <c r="BB11" t="n">
-        <v>54</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>26</v>
-      </c>
       <c r="BD11" t="n">
-        <v>61.904761904762</v>
+        <v>56.25</v>
       </c>
       <c r="BE11" t="n">
         <v>1</v>
@@ -4401,10 +4401,10 @@
         <v>12.5</v>
       </c>
       <c r="BG11" t="n">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="BH11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI11" t="n">
         <v>2</v>
@@ -4413,7 +4413,7 @@
         <v>1</v>
       </c>
       <c r="BK11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL11" t="n">
         <v>0</v>
@@ -4431,16 +4431,16 @@
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>139.8</v>
+        <v>147.1</v>
       </c>
       <c r="BR11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS11" t="n">
         <v>6</v>
       </c>
       <c r="BT11" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
@@ -4464,19 +4464,19 @@
         <v>9</v>
       </c>
       <c r="CB11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CC11" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="CD11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CE11" t="n">
         <v>0</v>
       </c>
       <c r="CF11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG11" t="n">
         <v>0</v>
@@ -4512,16 +4512,16 @@
         <v>0</v>
       </c>
       <c r="CR11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CS11" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="CT11" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="CU11" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="CV11" t="n">
         <v>7</v>
@@ -4536,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="DA11" t="n">
         <v>5</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="DG11" t="n">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
@@ -4595,16 +4595,16 @@
         <v>801030</v>
       </c>
       <c r="E12" t="n">
-        <v>6.75625</v>
+        <v>6.7588235294118</v>
       </c>
       <c r="F12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H12" t="n">
-        <v>1262</v>
+        <v>1352</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -4613,13 +4613,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.503</v>
+        <v>0.5705</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="n">
         <v>2</v>
@@ -4661,67 +4661,67 @@
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.35804853</v>
+        <v>1.42623293</v>
       </c>
       <c r="AB12" t="n">
-        <v>873</v>
+        <v>945</v>
       </c>
       <c r="AC12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE12" t="n">
-        <v>581</v>
+        <v>631</v>
       </c>
       <c r="AF12" t="n">
-        <v>84.69387755101999</v>
+        <v>84.81182795698901</v>
       </c>
       <c r="AG12" t="n">
-        <v>686</v>
+        <v>744</v>
       </c>
       <c r="AH12" t="n">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="AI12" t="n">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="AJ12" t="n">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="AK12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL12" t="n">
-        <v>44</v>
+        <v>42.857142857143</v>
       </c>
       <c r="AM12" t="n">
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AO12" t="n">
         <v>12</v>
       </c>
       <c r="AP12" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR12" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="AS12" t="n">
         <v>8</v>
       </c>
       <c r="AT12" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV12" t="n">
         <v>0</v>
@@ -4733,37 +4733,37 @@
         <v>0</v>
       </c>
       <c r="AY12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ12" t="n">
-        <v>44.444444444444</v>
+        <v>50</v>
       </c>
       <c r="BA12" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB12" t="n">
-        <v>60.740740740741</v>
+        <v>60.56338028169</v>
       </c>
       <c r="BC12" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="BD12" t="n">
-        <v>59.493670886076</v>
+        <v>60.714285714286</v>
       </c>
       <c r="BE12" t="n">
         <v>35</v>
       </c>
       <c r="BF12" t="n">
-        <v>62.5</v>
+        <v>60.344827586207</v>
       </c>
       <c r="BG12" t="n">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="BH12" t="n">
         <v>14</v>
       </c>
       <c r="BI12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BJ12" t="n">
         <v>1</v>
@@ -4781,22 +4781,22 @@
         <v>3</v>
       </c>
       <c r="BO12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BP12" t="n">
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>108.1</v>
+        <v>114.9</v>
       </c>
       <c r="BR12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS12" t="n">
         <v>0</v>
       </c>
       <c r="BT12" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="BU12" t="n">
         <v>0</v>
@@ -4814,16 +4814,16 @@
         <v>0</v>
       </c>
       <c r="BZ12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CA12" t="n">
         <v>0</v>
       </c>
       <c r="CB12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CC12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CD12" t="n">
         <v>14</v>
@@ -4844,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CK12" t="n">
         <v>1</v>
@@ -4868,19 +4868,19 @@
         <v>0</v>
       </c>
       <c r="CR12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="CS12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CT12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CU12" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="CV12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="CW12" t="n">
         <v>0</v>
@@ -4892,13 +4892,13 @@
         <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="DA12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="DB12" t="n">
-        <v>70.833333333333</v>
+        <v>69.230769230769</v>
       </c>
       <c r="DC12" t="n">
         <v>0</v>
@@ -4910,10 +4910,10 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="DG12" t="n">
-        <v>439</v>
+        <v>471</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
@@ -5663,16 +5663,16 @@
         <v>1009334</v>
       </c>
       <c r="E15" t="n">
-        <v>6.3272727272727</v>
+        <v>6.4083333333333</v>
       </c>
       <c r="F15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H15" t="n">
-        <v>545</v>
+        <v>622</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -5681,13 +5681,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4436</v>
+        <v>0.4598</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N15" t="n">
         <v>3</v>
@@ -5729,10 +5729,10 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.8131766</v>
+        <v>0.84796</v>
       </c>
       <c r="AB15" t="n">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="AC15" t="n">
         <v>1</v>
@@ -5741,28 +5741,28 @@
         <v>3</v>
       </c>
       <c r="AE15" t="n">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="AF15" t="n">
-        <v>82.5</v>
+        <v>83.150183150183</v>
       </c>
       <c r="AG15" t="n">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="AH15" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AI15" t="n">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="AJ15" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="AK15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL15" t="n">
-        <v>28.571428571429</v>
+        <v>36.363636363636</v>
       </c>
       <c r="AM15" t="n">
         <v>5</v>
@@ -5774,19 +5774,19 @@
         <v>9</v>
       </c>
       <c r="AP15" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AQ15" t="n">
         <v>4</v>
       </c>
       <c r="AR15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS15" t="n">
         <v>3</v>
       </c>
       <c r="AT15" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AU15" t="n">
         <v>3</v>
@@ -5807,28 +5807,28 @@
         <v>45.454545454545</v>
       </c>
       <c r="BA15" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="BB15" t="n">
-        <v>38.805970149254</v>
+        <v>40.540540540541</v>
       </c>
       <c r="BC15" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BD15" t="n">
-        <v>36.95652173913</v>
+        <v>40.384615384615</v>
       </c>
       <c r="BE15" t="n">
         <v>9</v>
       </c>
       <c r="BF15" t="n">
-        <v>42.857142857143</v>
+        <v>40.909090909091</v>
       </c>
       <c r="BG15" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="BH15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BI15" t="n">
         <v>3</v>
@@ -5855,22 +5855,22 @@
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>69.59999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="BR15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BS15" t="n">
         <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="BU15" t="n">
         <v>1</v>
       </c>
       <c r="BV15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BW15" t="n">
         <v>0</v>
@@ -5885,7 +5885,7 @@
         <v>4</v>
       </c>
       <c r="CA15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CB15" t="n">
         <v>8</v>
@@ -5945,10 +5945,10 @@
         <v>21</v>
       </c>
       <c r="CU15" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="CV15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CW15" t="n">
         <v>0</v>
@@ -5960,13 +5960,13 @@
         <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="DA15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="DB15" t="n">
-        <v>66.666666666667</v>
+        <v>61.538461538462</v>
       </c>
       <c r="DC15" t="n">
         <v>0</v>
@@ -5978,10 +5978,10 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="DG15" t="n">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="DH15" t="n">
         <v>0</v>
@@ -6019,16 +6019,16 @@
         <v>788949</v>
       </c>
       <c r="E16" t="n">
-        <v>7.095</v>
+        <v>7.1285714285714</v>
       </c>
       <c r="F16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H16" t="n">
-        <v>1353</v>
+        <v>1430</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -6040,7 +6040,7 @@
         <v>2.2863</v>
       </c>
       <c r="L16" t="n">
-        <v>451</v>
+        <v>476.66666666667</v>
       </c>
       <c r="M16" t="n">
         <v>19</v>
@@ -6085,64 +6085,64 @@
         <v>3</v>
       </c>
       <c r="AA16" t="n">
-        <v>3.66253713</v>
+        <v>3.88640613</v>
       </c>
       <c r="AB16" t="n">
-        <v>1204</v>
+        <v>1275</v>
       </c>
       <c r="AC16" t="n">
         <v>8</v>
       </c>
       <c r="AD16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE16" t="n">
-        <v>685</v>
+        <v>727</v>
       </c>
       <c r="AF16" t="n">
-        <v>85.94730238394</v>
+        <v>86.03550295858</v>
       </c>
       <c r="AG16" t="n">
-        <v>797</v>
+        <v>845</v>
       </c>
       <c r="AH16" t="n">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="AI16" t="n">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="AJ16" t="n">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="AK16" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL16" t="n">
-        <v>50.847457627119</v>
+        <v>49.230769230769</v>
       </c>
       <c r="AM16" t="n">
         <v>20</v>
       </c>
       <c r="AN16" t="n">
-        <v>29.411764705882</v>
+        <v>28.169014084507</v>
       </c>
       <c r="AO16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP16" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AQ16" t="n">
         <v>3</v>
       </c>
       <c r="AR16" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AS16" t="n">
         <v>14</v>
       </c>
       <c r="AT16" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AU16" t="n">
         <v>3</v>
@@ -6157,31 +6157,31 @@
         <v>0</v>
       </c>
       <c r="AY16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ16" t="n">
-        <v>45.454545454545</v>
+        <v>53.846153846154</v>
       </c>
       <c r="BA16" t="n">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="BB16" t="n">
-        <v>64.661654135338</v>
+        <v>65.972222222222</v>
       </c>
       <c r="BC16" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="BD16" t="n">
-        <v>64.705882352941</v>
+        <v>66.666666666667</v>
       </c>
       <c r="BE16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BF16" t="n">
-        <v>64.51612903225799</v>
+        <v>63.636363636364</v>
       </c>
       <c r="BG16" t="n">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="BH16" t="n">
         <v>7</v>
@@ -6211,16 +6211,16 @@
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>141.9</v>
+        <v>149.7</v>
       </c>
       <c r="BR16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS16" t="n">
         <v>6</v>
       </c>
       <c r="BT16" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
@@ -6244,10 +6244,10 @@
         <v>9</v>
       </c>
       <c r="CB16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CC16" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CD16" t="n">
         <v>27</v>
@@ -6292,38 +6292,38 @@
         <v>0</v>
       </c>
       <c r="CR16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CS16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CT16" t="n">
+        <v>71</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>49</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>12</v>
+      </c>
+      <c r="CW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ16" t="n">
+        <v>65</v>
+      </c>
+      <c r="DA16" t="n">
+        <v>34</v>
+      </c>
+      <c r="DB16" t="n">
         <v>68</v>
       </c>
-      <c r="CU16" t="n">
-        <v>47</v>
-      </c>
-      <c r="CV16" t="n">
-        <v>11</v>
-      </c>
-      <c r="CW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ16" t="n">
-        <v>59</v>
-      </c>
-      <c r="DA16" t="n">
-        <v>29</v>
-      </c>
-      <c r="DB16" t="n">
-        <v>65.90909090909101</v>
-      </c>
       <c r="DC16" t="n">
         <v>0</v>
       </c>
@@ -6334,10 +6334,10 @@
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="DG16" t="n">
-        <v>472</v>
+        <v>501</v>
       </c>
       <c r="DH16" t="n">
         <v>0</v>
@@ -6375,16 +6375,16 @@
         <v>1418649</v>
       </c>
       <c r="E17" t="n">
-        <v>6.8142857142857</v>
+        <v>6.8133333333333</v>
       </c>
       <c r="F17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H17" t="n">
-        <v>993</v>
+        <v>1083</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -6441,10 +6441,10 @@
         <v>1</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.26140175</v>
+        <v>0.27118875</v>
       </c>
       <c r="AB17" t="n">
-        <v>862</v>
+        <v>923</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -6453,28 +6453,28 @@
         <v>5</v>
       </c>
       <c r="AE17" t="n">
-        <v>658</v>
+        <v>701</v>
       </c>
       <c r="AF17" t="n">
-        <v>91.515994436718</v>
+        <v>91.276041666667</v>
       </c>
       <c r="AG17" t="n">
-        <v>719</v>
+        <v>768</v>
       </c>
       <c r="AH17" t="n">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="AI17" t="n">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="AJ17" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AK17" t="n">
         <v>15</v>
       </c>
       <c r="AL17" t="n">
-        <v>41.666666666667</v>
+        <v>39.473684210526</v>
       </c>
       <c r="AM17" t="n">
         <v>0</v>
@@ -6486,25 +6486,25 @@
         <v>13</v>
       </c>
       <c r="AP17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ17" t="n">
         <v>0</v>
       </c>
       <c r="AR17" t="n">
+        <v>59</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT17" t="n">
         <v>56</v>
       </c>
-      <c r="AS17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>51</v>
-      </c>
       <c r="AU17" t="n">
         <v>1</v>
       </c>
       <c r="AV17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW17" t="n">
         <v>0</v>
@@ -6519,25 +6519,25 @@
         <v>66.666666666667</v>
       </c>
       <c r="BA17" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="BB17" t="n">
-        <v>60</v>
+        <v>59.782608695652</v>
       </c>
       <c r="BC17" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BD17" t="n">
-        <v>64.583333333333</v>
+        <v>64</v>
       </c>
       <c r="BE17" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BF17" t="n">
-        <v>54.054054054054</v>
+        <v>54.761904761905</v>
       </c>
       <c r="BG17" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="BH17" t="n">
         <v>8</v>
@@ -6561,22 +6561,22 @@
         <v>4</v>
       </c>
       <c r="BO17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BP17" t="n">
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>95.40000000000001</v>
+        <v>102.2</v>
       </c>
       <c r="BR17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BS17" t="n">
         <v>1</v>
       </c>
       <c r="BT17" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
@@ -6603,7 +6603,7 @@
         <v>3</v>
       </c>
       <c r="CC17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CD17" t="n">
         <v>9</v>
@@ -6624,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CK17" t="n">
         <v>0</v>
@@ -6657,10 +6657,10 @@
         <v>2</v>
       </c>
       <c r="CU17" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="CV17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="CW17" t="n">
         <v>0</v>
@@ -6672,13 +6672,13 @@
         <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="DA17" t="n">
         <v>8</v>
       </c>
       <c r="DB17" t="n">
-        <v>57.142857142857</v>
+        <v>53.333333333333</v>
       </c>
       <c r="DC17" t="n">
         <v>0</v>
@@ -6690,16 +6690,16 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>395</v>
+        <v>422</v>
       </c>
       <c r="DG17" t="n">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="DH17" t="n">
         <v>0</v>
       </c>
       <c r="DI17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="DJ17" t="n">
         <v>2190039</v>
@@ -7087,16 +7087,16 @@
         <v>863271</v>
       </c>
       <c r="E19" t="n">
-        <v>7.2058823529412</v>
+        <v>7.2055555555556</v>
       </c>
       <c r="F19" t="n">
+        <v>18</v>
+      </c>
+      <c r="G19" t="n">
         <v>17</v>
       </c>
-      <c r="G19" t="n">
-        <v>16</v>
-      </c>
       <c r="H19" t="n">
-        <v>1431</v>
+        <v>1521</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
@@ -7153,10 +7153,10 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.5105982100000001</v>
+        <v>0.52240331</v>
       </c>
       <c r="AB19" t="n">
-        <v>1440</v>
+        <v>1526</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -7165,28 +7165,28 @@
         <v>4</v>
       </c>
       <c r="AE19" t="n">
-        <v>1033</v>
+        <v>1095</v>
       </c>
       <c r="AF19" t="n">
-        <v>88.290598290598</v>
+        <v>88.449111470113</v>
       </c>
       <c r="AG19" t="n">
-        <v>1170</v>
+        <v>1238</v>
       </c>
       <c r="AH19" t="n">
-        <v>555</v>
+        <v>594</v>
       </c>
       <c r="AI19" t="n">
-        <v>478</v>
+        <v>501</v>
       </c>
       <c r="AJ19" t="n">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="AK19" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="AL19" t="n">
-        <v>53.04347826087</v>
+        <v>53.658536585366</v>
       </c>
       <c r="AM19" t="n">
         <v>0</v>
@@ -7198,19 +7198,19 @@
         <v>25</v>
       </c>
       <c r="AP19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ19" t="n">
         <v>4</v>
       </c>
       <c r="AR19" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AS19" t="n">
         <v>5</v>
       </c>
       <c r="AT19" t="n">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="AU19" t="n">
         <v>2</v>
@@ -7219,7 +7219,7 @@
         <v>1</v>
       </c>
       <c r="AW19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX19" t="n">
         <v>1</v>
@@ -7231,37 +7231,37 @@
         <v>66.666666666667</v>
       </c>
       <c r="BA19" t="n">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="BB19" t="n">
-        <v>65.284974093264</v>
+        <v>66.34146341463401</v>
       </c>
       <c r="BC19" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="BD19" t="n">
-        <v>63.095238095238</v>
+        <v>63.636363636364</v>
       </c>
       <c r="BE19" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="BF19" t="n">
-        <v>66.97247706422</v>
+        <v>68.37606837606801</v>
       </c>
       <c r="BG19" t="n">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="BH19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BI19" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="BJ19" t="n">
         <v>0</v>
       </c>
       <c r="BK19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL19" t="n">
         <v>0</v>
@@ -7273,22 +7273,22 @@
         <v>7</v>
       </c>
       <c r="BO19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BP19" t="n">
         <v>0</v>
       </c>
       <c r="BQ19" t="n">
-        <v>122.5</v>
+        <v>129.7</v>
       </c>
       <c r="BR19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS19" t="n">
         <v>0</v>
       </c>
       <c r="BT19" t="n">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="BU19" t="n">
         <v>0</v>
@@ -7315,10 +7315,10 @@
         <v>2</v>
       </c>
       <c r="CC19" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="CD19" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="CE19" t="n">
         <v>1</v>
@@ -7336,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="CJ19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CK19" t="n">
         <v>1</v>
@@ -7369,10 +7369,10 @@
         <v>1</v>
       </c>
       <c r="CU19" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="CV19" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CW19" t="n">
         <v>0</v>
@@ -7384,13 +7384,13 @@
         <v>0</v>
       </c>
       <c r="CZ19" t="n">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="DA19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="DB19" t="n">
-        <v>52.631578947368</v>
+        <v>55</v>
       </c>
       <c r="DC19" t="n">
         <v>0</v>
@@ -7402,13 +7402,13 @@
         <v>0</v>
       </c>
       <c r="DF19" t="n">
-        <v>602</v>
+        <v>643</v>
       </c>
       <c r="DG19" t="n">
-        <v>568</v>
+        <v>595</v>
       </c>
       <c r="DH19" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="DI19" t="n">
         <v>12</v>
@@ -7436,317 +7436,317 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Josha Vagnoman</t>
+          <t>Ameen Al-Dakhil</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>906278</v>
+        <v>1979970</v>
       </c>
       <c r="E20" t="n">
-        <v>6.5529411764706</v>
+        <v>6.5142857142857</v>
       </c>
       <c r="F20" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G20" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>1385</v>
+        <v>368</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>2.8863</v>
+        <v>0.06469999999999999</v>
       </c>
       <c r="L20" t="n">
-        <v>1385</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.0545273</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>292</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>207</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>88.461538461538</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>234</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>117</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK20" t="n">
         <v>5</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5.2631578947368</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>1.85021726</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>873</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>451</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>83.518518518519</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>540</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>203</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>248</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>127</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>12</v>
       </c>
       <c r="AL20" t="n">
         <v>33.333333333333</v>
       </c>
       <c r="AM20" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>22.222222222222</v>
+        <v>0</v>
       </c>
       <c r="AO20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>50</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>50</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>35</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>8</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>7</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>27</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>4</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>9</v>
+      </c>
+      <c r="CD20" t="n">
         <v>3</v>
       </c>
-      <c r="AP20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>48</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>37</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>60</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>63</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>49.21875</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>49</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>51.578947368421</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>14</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>42.424242424242</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>163</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>17</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>14</v>
-      </c>
-      <c r="BJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>3</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN20" t="n">
+      <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>7</v>
+      </c>
+      <c r="CK20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR20" t="n">
+        <v>2</v>
+      </c>
+      <c r="CS20" t="n">
+        <v>2</v>
+      </c>
+      <c r="CT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU20" t="n">
+        <v>15</v>
+      </c>
+      <c r="CV20" t="n">
+        <v>7</v>
+      </c>
+      <c r="CW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ20" t="n">
+        <v>15</v>
+      </c>
+      <c r="DA20" t="n">
         <v>5</v>
       </c>
-      <c r="BO20" t="n">
-        <v>19</v>
-      </c>
-      <c r="BP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ20" t="n">
-        <v>111.4</v>
-      </c>
-      <c r="BR20" t="n">
-        <v>17</v>
-      </c>
-      <c r="BS20" t="n">
-        <v>4</v>
-      </c>
-      <c r="BT20" t="n">
-        <v>89</v>
-      </c>
-      <c r="BU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>7</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ20" t="n">
-        <v>16</v>
-      </c>
-      <c r="CA20" t="n">
-        <v>3</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>13</v>
-      </c>
-      <c r="CC20" t="n">
-        <v>20</v>
-      </c>
-      <c r="CD20" t="n">
-        <v>12</v>
-      </c>
-      <c r="CE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ20" t="n">
-        <v>17</v>
-      </c>
-      <c r="CK20" t="n">
-        <v>2</v>
-      </c>
-      <c r="CL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR20" t="n">
-        <v>16</v>
-      </c>
-      <c r="CS20" t="n">
-        <v>10</v>
-      </c>
-      <c r="CT20" t="n">
-        <v>27</v>
-      </c>
-      <c r="CU20" t="n">
-        <v>65</v>
-      </c>
-      <c r="CV20" t="n">
-        <v>19</v>
-      </c>
-      <c r="CW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ20" t="n">
-        <v>36</v>
-      </c>
-      <c r="DA20" t="n">
-        <v>16</v>
-      </c>
       <c r="DB20" t="n">
-        <v>55.172413793103</v>
+        <v>71.428571428571</v>
       </c>
       <c r="DC20" t="n">
         <v>0</v>
@@ -7758,19 +7758,19 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>238</v>
+        <v>131</v>
       </c>
       <c r="DG20" t="n">
-        <v>302</v>
+        <v>103</v>
       </c>
       <c r="DH20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI20" t="n">
         <v>2</v>
       </c>
       <c r="DJ20" t="n">
-        <v>2163241</v>
+        <v>2320916</v>
       </c>
       <c r="DK20" t="inlineStr">
         <is>
@@ -7792,299 +7792,299 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ameen Al-Dakhil</t>
+          <t>Josha Vagnoman</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1979970</v>
+        <v>906278</v>
       </c>
       <c r="E21" t="n">
-        <v>6.5142857142857</v>
+        <v>6.5388888888889</v>
       </c>
       <c r="F21" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G21" t="n">
+        <v>16</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1398</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.8863</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1398</v>
+      </c>
+      <c r="M21" t="n">
+        <v>19</v>
+      </c>
+      <c r="N21" t="n">
+        <v>11</v>
+      </c>
+      <c r="O21" t="n">
+        <v>5</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5.2631578947368</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
         <v>3</v>
       </c>
-      <c r="H21" t="n">
-        <v>368</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.06469999999999999</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
       <c r="AA21" t="n">
-        <v>0.0545273</v>
+        <v>1.85781855</v>
       </c>
       <c r="AB21" t="n">
-        <v>292</v>
+        <v>880</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD21" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="AE21" t="n">
-        <v>207</v>
+        <v>454</v>
       </c>
       <c r="AF21" t="n">
-        <v>88.461538461538</v>
+        <v>83.455882352941</v>
       </c>
       <c r="AG21" t="n">
-        <v>234</v>
+        <v>544</v>
       </c>
       <c r="AH21" t="n">
-        <v>117</v>
+        <v>203</v>
       </c>
       <c r="AI21" t="n">
-        <v>90</v>
+        <v>251</v>
       </c>
       <c r="AJ21" t="n">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="AK21" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AL21" t="n">
         <v>33.333333333333</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>22.222222222222</v>
       </c>
       <c r="AO21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>49</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>38</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>60</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>63</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>49.21875</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>49</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>51.578947368421</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>14</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>42.424242424242</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>164</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>5</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>20</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>117.7</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>18</v>
+      </c>
+      <c r="BS21" t="n">
         <v>4</v>
       </c>
-      <c r="AP21" t="n">
+      <c r="BT21" t="n">
+        <v>90</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV21" t="n">
         <v>7</v>
       </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>14</v>
-      </c>
-      <c r="AS21" t="n">
+      <c r="BW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>16</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>3</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>13</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>20</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>12</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>18</v>
+      </c>
+      <c r="CK21" t="n">
         <v>2</v>
       </c>
-      <c r="AT21" t="n">
-        <v>22</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>15</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>50</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>8</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>50</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>7</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>50</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>35</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO21" t="n">
-        <v>8</v>
-      </c>
-      <c r="BP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ21" t="n">
-        <v>45.6</v>
-      </c>
-      <c r="BR21" t="n">
-        <v>7</v>
-      </c>
-      <c r="BS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT21" t="n">
+      <c r="CL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR21" t="n">
+        <v>16</v>
+      </c>
+      <c r="CS21" t="n">
+        <v>10</v>
+      </c>
+      <c r="CT21" t="n">
         <v>27</v>
       </c>
-      <c r="BU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ21" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB21" t="n">
-        <v>4</v>
-      </c>
-      <c r="CC21" t="n">
-        <v>9</v>
-      </c>
-      <c r="CD21" t="n">
-        <v>3</v>
-      </c>
-      <c r="CE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ21" t="n">
-        <v>7</v>
-      </c>
-      <c r="CK21" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR21" t="n">
-        <v>2</v>
-      </c>
-      <c r="CS21" t="n">
-        <v>2</v>
-      </c>
-      <c r="CT21" t="n">
-        <v>0</v>
-      </c>
       <c r="CU21" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="CV21" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="CW21" t="n">
         <v>0</v>
@@ -8096,13 +8096,13 @@
         <v>0</v>
       </c>
       <c r="CZ21" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="DA21" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="DB21" t="n">
-        <v>71.428571428571</v>
+        <v>55.172413793103</v>
       </c>
       <c r="DC21" t="n">
         <v>0</v>
@@ -8114,19 +8114,19 @@
         <v>0</v>
       </c>
       <c r="DF21" t="n">
-        <v>131</v>
+        <v>239</v>
       </c>
       <c r="DG21" t="n">
-        <v>103</v>
+        <v>305</v>
       </c>
       <c r="DH21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI21" t="n">
         <v>2</v>
       </c>
       <c r="DJ21" t="n">
-        <v>2320916</v>
+        <v>2163241</v>
       </c>
       <c r="DK21" t="inlineStr">
         <is>
@@ -8155,16 +8155,16 @@
         <v>916943</v>
       </c>
       <c r="E22" t="n">
-        <v>6.8529411764706</v>
+        <v>6.8444444444444</v>
       </c>
       <c r="F22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G22" t="n">
         <v>13</v>
       </c>
       <c r="H22" t="n">
-        <v>1133</v>
+        <v>1146</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -8218,34 +8218,34 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.66138496</v>
+        <v>0.85856596</v>
       </c>
       <c r="AB22" t="n">
-        <v>939</v>
+        <v>947</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE22" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AF22" t="n">
-        <v>90.80779944289699</v>
+        <v>90.820584144645</v>
       </c>
       <c r="AG22" t="n">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AH22" t="n">
         <v>371</v>
       </c>
       <c r="AI22" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AJ22" t="n">
         <v>87</v>
@@ -8257,10 +8257,10 @@
         <v>50</v>
       </c>
       <c r="AM22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AN22" t="n">
-        <v>27.272727272727</v>
+        <v>38.461538461538</v>
       </c>
       <c r="AO22" t="n">
         <v>10</v>
@@ -8299,31 +8299,31 @@
         <v>100</v>
       </c>
       <c r="BA22" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BB22" t="n">
-        <v>68.131868131868</v>
+        <v>67.741935483871</v>
       </c>
       <c r="BC22" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BD22" t="n">
-        <v>68.75</v>
+        <v>69.387755102041</v>
       </c>
       <c r="BE22" t="n">
         <v>29</v>
       </c>
       <c r="BF22" t="n">
-        <v>67.44186046511599</v>
+        <v>65.90909090909101</v>
       </c>
       <c r="BG22" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BH22" t="n">
         <v>7</v>
       </c>
       <c r="BI22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BJ22" t="n">
         <v>0</v>
@@ -8341,19 +8341,19 @@
         <v>3</v>
       </c>
       <c r="BO22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BP22" t="n">
         <v>0</v>
       </c>
       <c r="BQ22" t="n">
-        <v>116.5</v>
+        <v>123.2</v>
       </c>
       <c r="BR22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BT22" t="n">
         <v>66</v>
@@ -8404,7 +8404,7 @@
         <v>0</v>
       </c>
       <c r="CJ22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CK22" t="n">
         <v>1</v>
@@ -8428,19 +8428,19 @@
         <v>0</v>
       </c>
       <c r="CR22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CS22" t="n">
         <v>3</v>
       </c>
       <c r="CT22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CU22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="CV22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CW22" t="n">
         <v>0</v>
@@ -8473,7 +8473,7 @@
         <v>390</v>
       </c>
       <c r="DG22" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="DH22" t="n">
         <v>8</v>
@@ -9223,16 +9223,16 @@
         <v>584722</v>
       </c>
       <c r="E25" t="n">
-        <v>7.2047619047619</v>
+        <v>7.2</v>
       </c>
       <c r="F25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H25" t="n">
-        <v>1890</v>
+        <v>1980</v>
       </c>
       <c r="I25" t="n">
         <v>2</v>
@@ -9287,10 +9287,10 @@
         <v>1</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.05079668</v>
+        <v>0.05408154</v>
       </c>
       <c r="AB25" t="n">
-        <v>950</v>
+        <v>992</v>
       </c>
       <c r="AC25" t="n">
         <v>1</v>
@@ -9299,28 +9299,28 @@
         <v>3</v>
       </c>
       <c r="AE25" t="n">
-        <v>555</v>
+        <v>584</v>
       </c>
       <c r="AF25" t="n">
-        <v>76.86980609418301</v>
+        <v>77.04485488126601</v>
       </c>
       <c r="AG25" t="n">
-        <v>722</v>
+        <v>758</v>
       </c>
       <c r="AH25" t="n">
-        <v>475</v>
+        <v>497</v>
       </c>
       <c r="AI25" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AJ25" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AK25" t="n">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="AL25" t="n">
-        <v>44.709897610922</v>
+        <v>45.307443365696</v>
       </c>
       <c r="AM25" t="n">
         <v>0</v>
@@ -9338,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="AS25" t="n">
         <v>0</v>
@@ -9383,7 +9383,7 @@
         <v>100</v>
       </c>
       <c r="BG25" t="n">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="BH25" t="n">
         <v>0</v>
@@ -9401,28 +9401,28 @@
         <v>0</v>
       </c>
       <c r="BM25" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BN25" t="n">
         <v>8</v>
       </c>
       <c r="BO25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BP25" t="n">
         <v>1</v>
       </c>
       <c r="BQ25" t="n">
-        <v>151.3</v>
+        <v>158.4</v>
       </c>
       <c r="BR25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS25" t="n">
         <v>1</v>
       </c>
       <c r="BT25" t="n">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="BU25" t="n">
         <v>0</v>
@@ -9449,10 +9449,10 @@
         <v>0</v>
       </c>
       <c r="CC25" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="CD25" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="CE25" t="n">
         <v>0</v>
@@ -9464,13 +9464,13 @@
         <v>7</v>
       </c>
       <c r="CH25" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="CI25" t="n">
         <v>13</v>
       </c>
       <c r="CJ25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CK25" t="n">
         <v>2</v>
@@ -9485,7 +9485,7 @@
         <v>19</v>
       </c>
       <c r="CO25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CP25" t="n">
         <v>0</v>
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="CZ25" t="n">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="DA25" t="n">
         <v>0</v>
@@ -9536,10 +9536,10 @@
         <v>5</v>
       </c>
       <c r="DF25" t="n">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="DG25" t="n">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="DH25" t="n">
         <v>68</v>
@@ -9556,7 +9556,7 @@
         </is>
       </c>
       <c r="DL25" t="n">
-        <v>4.2275</v>
+        <v>4.3959</v>
       </c>
     </row>
   </sheetData>
